--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col4a1-Itga1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H2">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I2">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J2">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N2">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O2">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P2">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q2">
-        <v>26031.34991455515</v>
+        <v>14961.6742304295</v>
       </c>
       <c r="R2">
-        <v>104125.3996582206</v>
+        <v>59846.696921718</v>
       </c>
       <c r="S2">
-        <v>0.2355657770951021</v>
+        <v>0.364992617829455</v>
       </c>
       <c r="T2">
-        <v>0.16693985712971</v>
+        <v>0.3304870590332044</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H3">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I3">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J3">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.081356</v>
       </c>
       <c r="O3">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P3">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q3">
-        <v>1098.256408025396</v>
+        <v>561.077488306196</v>
       </c>
       <c r="R3">
-        <v>6589.538448152376</v>
+        <v>3366.464929837176</v>
       </c>
       <c r="S3">
-        <v>0.009938463623875387</v>
+        <v>0.01368758189144017</v>
       </c>
       <c r="T3">
-        <v>0.01056472878563823</v>
+        <v>0.01859038428562905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H4">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I4">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J4">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N4">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O4">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P4">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q4">
-        <v>1224.350253246126</v>
+        <v>1280.938974973084</v>
       </c>
       <c r="R4">
-        <v>7346.101519476755</v>
+        <v>7685.633849838505</v>
       </c>
       <c r="S4">
-        <v>0.01107952602493521</v>
+        <v>0.0312487267504008</v>
       </c>
       <c r="T4">
-        <v>0.01177769441603267</v>
+        <v>0.04244181648256382</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H5">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I5">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J5">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N5">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O5">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P5">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q5">
-        <v>11140.58012640333</v>
+        <v>8763.879609019297</v>
       </c>
       <c r="R5">
-        <v>44562.32050561333</v>
+        <v>35055.51843607719</v>
       </c>
       <c r="S5">
-        <v>0.1008145725588776</v>
+        <v>0.2137963513690478</v>
       </c>
       <c r="T5">
-        <v>0.07144488705919812</v>
+        <v>0.1935845382741442</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H6">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I6">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J6">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N6">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O6">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P6">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q6">
-        <v>21756.59431654441</v>
+        <v>111.817969564314</v>
       </c>
       <c r="R6">
-        <v>130539.5658992665</v>
+        <v>670.907817385884</v>
       </c>
       <c r="S6">
-        <v>0.1968821849017525</v>
+        <v>0.002727818611946993</v>
       </c>
       <c r="T6">
-        <v>0.2092885746660126</v>
+        <v>0.003704905414249919</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>465.273773</v>
+        <v>237.699173</v>
       </c>
       <c r="H7">
-        <v>930.547546</v>
+        <v>475.398346</v>
       </c>
       <c r="I7">
-        <v>0.5560786851775209</v>
+        <v>0.6281175046907784</v>
       </c>
       <c r="J7">
-        <v>0.4719272128544315</v>
+        <v>0.5910692918834948</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N7">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O7">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P7">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q7">
-        <v>198.7069516952326</v>
+        <v>68.22695209230532</v>
       </c>
       <c r="R7">
-        <v>1192.241710171396</v>
+        <v>409.361712553832</v>
       </c>
       <c r="S7">
-        <v>0.001798160972977967</v>
+        <v>0.001664408238487657</v>
       </c>
       <c r="T7">
-        <v>0.001911470797839867</v>
+        <v>0.002260588393703253</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>138.029482</v>
       </c>
       <c r="I8">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J8">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N8">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O8">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P8">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q8">
-        <v>2574.178869141338</v>
+        <v>2896.030471084744</v>
       </c>
       <c r="R8">
-        <v>15445.07321484803</v>
+        <v>17376.18282650847</v>
       </c>
       <c r="S8">
-        <v>0.02329454475781969</v>
+        <v>0.07064916176327861</v>
       </c>
       <c r="T8">
-        <v>0.02476243379913</v>
+        <v>0.09595522986118388</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>138.029482</v>
       </c>
       <c r="I9">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J9">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.081356</v>
       </c>
       <c r="O9">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P9">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q9">
         <v>108.6039889486213</v>
@@ -1013,10 +1013,10 @@
         <v>977.4359005375919</v>
       </c>
       <c r="S9">
-        <v>0.0009827912550169056</v>
+        <v>0.002649413001685212</v>
       </c>
       <c r="T9">
-        <v>0.001567081712289137</v>
+        <v>0.005397623140082019</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>138.029482</v>
       </c>
       <c r="I10">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J10">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N10">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O10">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P10">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q10">
-        <v>121.073112254228</v>
+        <v>247.9427265952187</v>
       </c>
       <c r="R10">
-        <v>1089.658010288052</v>
+        <v>2231.484539356969</v>
       </c>
       <c r="S10">
-        <v>0.001095628227775568</v>
+        <v>0.006048605487459797</v>
       </c>
       <c r="T10">
-        <v>0.001747002682869127</v>
+        <v>0.01232276467412729</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>138.029482</v>
       </c>
       <c r="I11">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J11">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N11">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O11">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P11">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q11">
-        <v>1101.665724040246</v>
+        <v>1696.365126104577</v>
       </c>
       <c r="R11">
-        <v>6609.994344241478</v>
+        <v>10178.19075662746</v>
       </c>
       <c r="S11">
-        <v>0.00996931558426304</v>
+        <v>0.04138311920414866</v>
       </c>
       <c r="T11">
-        <v>0.01059752486019626</v>
+        <v>0.05620628209166992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>138.029482</v>
       </c>
       <c r="I12">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J12">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N12">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O12">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P12">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q12">
-        <v>2151.458358400936</v>
+        <v>21.643850954492</v>
       </c>
       <c r="R12">
-        <v>19363.12522560842</v>
+        <v>194.794658590428</v>
       </c>
       <c r="S12">
-        <v>0.01946921545551857</v>
+        <v>0.0005280054690486203</v>
       </c>
       <c r="T12">
-        <v>0.03104408116903254</v>
+        <v>0.001075700366841225</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>138.029482</v>
       </c>
       <c r="I13">
-        <v>0.05498931118295542</v>
+        <v>0.1215804732137916</v>
       </c>
       <c r="J13">
-        <v>0.07000165548983235</v>
+        <v>0.1716139504296584</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N13">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O13">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P13">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q13">
-        <v>19.64966234499244</v>
+        <v>13.20623141270489</v>
       </c>
       <c r="R13">
-        <v>176.846961104932</v>
+        <v>118.856082714344</v>
       </c>
       <c r="S13">
-        <v>0.0001778159025616407</v>
+        <v>0.0003221682881706727</v>
       </c>
       <c r="T13">
-        <v>0.0002835312663152879</v>
+        <v>0.0006563502957540203</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H14">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I14">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J14">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N14">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O14">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P14">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q14">
-        <v>24.56016062592083</v>
+        <v>26.719364581552</v>
       </c>
       <c r="R14">
-        <v>147.360963755525</v>
+        <v>160.316187489312</v>
       </c>
       <c r="S14">
-        <v>0.0002222525279102277</v>
+        <v>0.0006518234975017449</v>
       </c>
       <c r="T14">
-        <v>0.0002362576116547134</v>
+        <v>0.0008853024150699872</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H15">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I15">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J15">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.081356</v>
       </c>
       <c r="O15">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P15">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q15">
-        <v>1.036187284873333</v>
+        <v>1.002002432192</v>
       </c>
       <c r="R15">
-        <v>9.325685563859999</v>
+        <v>9.018021889727999</v>
       </c>
       <c r="S15">
-        <v>9.376780834587848E-06</v>
+        <v>2.444402178289778E-05</v>
       </c>
       <c r="T15">
-        <v>1.495147793696345E-05</v>
+        <v>4.979956598994387E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H16">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I16">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J16">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N16">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O16">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P16">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q16">
-        <v>1.15515480299</v>
+        <v>2.287569890368</v>
       </c>
       <c r="R16">
-        <v>10.39639322691</v>
+        <v>20.588129013312</v>
       </c>
       <c r="S16">
-        <v>1.045335488649894E-05</v>
+        <v>5.580566117761857E-05</v>
       </c>
       <c r="T16">
-        <v>1.666809832818364E-05</v>
+        <v>0.0001136923265373482</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H17">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I17">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J17">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N17">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O17">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P17">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q17">
-        <v>10.51095845081083</v>
+        <v>15.651008758496</v>
       </c>
       <c r="R17">
-        <v>63.065750704865</v>
+        <v>93.90605255097599</v>
       </c>
       <c r="S17">
-        <v>9.511693030161081E-05</v>
+        <v>0.0003818090522795185</v>
       </c>
       <c r="T17">
-        <v>0.0001011106554885322</v>
+        <v>0.0005185705599355689</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H18">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I18">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J18">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N18">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O18">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P18">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q18">
-        <v>20.52699736437999</v>
+        <v>0.199690559328</v>
       </c>
       <c r="R18">
-        <v>184.74297627942</v>
+        <v>1.797215033952</v>
       </c>
       <c r="S18">
-        <v>0.0001857551798673949</v>
+        <v>4.871485562539381E-06</v>
       </c>
       <c r="T18">
-        <v>0.0002961906140772148</v>
+        <v>9.924629788641082E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4389783333333333</v>
+        <v>0.424496</v>
       </c>
       <c r="H19">
-        <v>1.316935</v>
+        <v>1.273488</v>
       </c>
       <c r="I19">
-        <v>0.0005246513098029694</v>
+        <v>0.001121726108282323</v>
       </c>
       <c r="J19">
-        <v>0.0006678836204898773</v>
+        <v>0.001583345118289764</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N19">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O19">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P19">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q19">
-        <v>0.1874768180344444</v>
+        <v>0.1218433698773333</v>
       </c>
       <c r="R19">
-        <v>1.68729136231</v>
+        <v>1.096590328896</v>
       </c>
       <c r="S19">
-        <v>1.696536002649161E-06</v>
+        <v>2.972389978004073E-06</v>
       </c>
       <c r="T19">
-        <v>2.705163004269795E-06</v>
+        <v>6.055620968273979E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H20">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I20">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J20">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N20">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O20">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P20">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q20">
-        <v>4086.356920889702</v>
+        <v>5872.133421941203</v>
       </c>
       <c r="R20">
-        <v>16345.42768355881</v>
+        <v>23488.53368776481</v>
       </c>
       <c r="S20">
-        <v>0.03697871400127047</v>
+        <v>0.1432517054514579</v>
       </c>
       <c r="T20">
-        <v>0.02620593410612552</v>
+        <v>0.1297090201924698</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H21">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I21">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J21">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.081356</v>
       </c>
       <c r="O21">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P21">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q21">
-        <v>172.402418183342</v>
+        <v>220.21077458569</v>
       </c>
       <c r="R21">
-        <v>1034.414509100052</v>
+        <v>1321.26464751414</v>
       </c>
       <c r="S21">
-        <v>0.001560123072592786</v>
+        <v>0.005372079745381257</v>
       </c>
       <c r="T21">
-        <v>0.001658433109778018</v>
+        <v>0.00729632360717689</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H22">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I22">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J22">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N22">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O22">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P22">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q22">
-        <v>192.196414990677</v>
+        <v>502.7408330485101</v>
       </c>
       <c r="R22">
-        <v>1153.178489944062</v>
+        <v>3016.444998291061</v>
       </c>
       <c r="S22">
-        <v>0.001739245102569829</v>
+        <v>0.01226444914640205</v>
       </c>
       <c r="T22">
-        <v>0.001848842386086514</v>
+        <v>0.01665749469055266</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H23">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I23">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J23">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N23">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O23">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P23">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q23">
-        <v>1748.829271308748</v>
+        <v>3439.633129648345</v>
       </c>
       <c r="R23">
-        <v>6995.317085234993</v>
+        <v>13758.53251859338</v>
       </c>
       <c r="S23">
-        <v>0.01582569969113131</v>
+        <v>0.08391044217564353</v>
       </c>
       <c r="T23">
-        <v>0.01121529654262367</v>
+        <v>0.07597774284235473</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H24">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I24">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J24">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N24">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O24">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P24">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q24">
-        <v>3415.313076433674</v>
+        <v>43.88613374008501</v>
       </c>
       <c r="R24">
-        <v>20491.87845860204</v>
+        <v>263.3168024405101</v>
       </c>
       <c r="S24">
-        <v>0.03090622966207825</v>
+        <v>0.001070609785610027</v>
       </c>
       <c r="T24">
-        <v>0.03285376357187724</v>
+        <v>0.001454095215086322</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>73.03788350000001</v>
+        <v>93.29178250000001</v>
       </c>
       <c r="H25">
-        <v>146.075767</v>
+        <v>186.583565</v>
       </c>
       <c r="I25">
-        <v>0.08729228377295394</v>
+        <v>0.2465225305266621</v>
       </c>
       <c r="J25">
-        <v>0.07408232914289298</v>
+        <v>0.2319819085816677</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N25">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O25">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P25">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q25">
-        <v>31.19267844172367</v>
+        <v>26.77760252549667</v>
       </c>
       <c r="R25">
-        <v>187.156070650342</v>
+        <v>160.66561515298</v>
       </c>
       <c r="S25">
-        <v>0.0002822722433112761</v>
+        <v>0.0006532442221673133</v>
       </c>
       <c r="T25">
-        <v>0.0003000594264020127</v>
+        <v>0.0008872320340272631</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H26">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I26">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J26">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N26">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O26">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P26">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q26">
-        <v>14045.58097932465</v>
+        <v>46.97258200483099</v>
       </c>
       <c r="R26">
-        <v>84273.48587594788</v>
+        <v>281.835492028986</v>
       </c>
       <c r="S26">
-        <v>0.1271028282823242</v>
+        <v>0.001145904222221516</v>
       </c>
       <c r="T26">
-        <v>0.13511212190428</v>
+        <v>0.001556359626892535</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H27">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I27">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J27">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.081356</v>
       </c>
       <c r="O27">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P27">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q27">
-        <v>592.5796920104334</v>
+        <v>1.761517990876</v>
       </c>
       <c r="R27">
-        <v>5333.2172280939</v>
+        <v>15.853661917884</v>
       </c>
       <c r="S27">
-        <v>0.005362437833512544</v>
+        <v>4.297253455337775E-05</v>
       </c>
       <c r="T27">
-        <v>0.008550522015013589</v>
+        <v>8.754752344981691E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H28">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I28">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J28">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N28">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O28">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P28">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q28">
-        <v>660.61539971885</v>
+        <v>4.021542650804</v>
       </c>
       <c r="R28">
-        <v>5945.538597469649</v>
+        <v>36.193883857236</v>
       </c>
       <c r="S28">
-        <v>0.005978114101134267</v>
+        <v>9.810622509374213E-05</v>
       </c>
       <c r="T28">
-        <v>0.009532231014514036</v>
+        <v>0.0001998708507942149</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H29">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I29">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J29">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N29">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O29">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P29">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q29">
-        <v>6011.056700311996</v>
+        <v>27.514437707638</v>
       </c>
       <c r="R29">
-        <v>36066.34020187197</v>
+        <v>165.086626245828</v>
       </c>
       <c r="S29">
-        <v>0.05439592058881185</v>
+        <v>0.0006712194432486298</v>
       </c>
       <c r="T29">
-        <v>0.05782364053588224</v>
+        <v>0.0009116458618436863</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H30">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I30">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J30">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N30">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O30">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P30">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q30">
-        <v>11739.0764716537</v>
+        <v>0.351055547934</v>
       </c>
       <c r="R30">
-        <v>105651.6882448833</v>
+        <v>3.159499931406</v>
       </c>
       <c r="S30">
-        <v>0.1062305520267211</v>
+        <v>8.564060510245858E-06</v>
       </c>
       <c r="T30">
-        <v>0.1693868911812721</v>
+        <v>1.744747653678871E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>251.0450083333334</v>
+        <v>0.7462629999999999</v>
       </c>
       <c r="H31">
-        <v>753.135025</v>
+        <v>2.238789</v>
       </c>
       <c r="I31">
-        <v>0.3000400758767458</v>
+        <v>0.001971991940430749</v>
       </c>
       <c r="J31">
-        <v>0.381952448081898</v>
+        <v>0.002783517107370325</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N31">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O31">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P31">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q31">
-        <v>107.2151306156278</v>
+        <v>0.2142003663986666</v>
       </c>
       <c r="R31">
-        <v>964.9361755406501</v>
+        <v>1.927803297588</v>
       </c>
       <c r="S31">
-        <v>0.000970223044241801</v>
+        <v>5.225454803237848E-06</v>
       </c>
       <c r="T31">
-        <v>0.001547041430936081</v>
+        <v>1.064576785328258E-05</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H32">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I32">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J32">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>55.9484575</v>
+        <v>62.943737</v>
       </c>
       <c r="N32">
-        <v>111.896915</v>
+        <v>125.887474</v>
       </c>
       <c r="O32">
-        <v>0.4236195045309115</v>
+        <v>0.581089708698917</v>
       </c>
       <c r="P32">
-        <v>0.3537406883573876</v>
+        <v>0.5591342057038322</v>
       </c>
       <c r="Q32">
-        <v>50.32293334580417</v>
+        <v>16.335032738766</v>
       </c>
       <c r="R32">
-        <v>301.937600074825</v>
+        <v>98.01019643259599</v>
       </c>
       <c r="S32">
-        <v>0.0004553878664848322</v>
+        <v>0.0003984959350021151</v>
       </c>
       <c r="T32">
-        <v>0.0004840838064874534</v>
+        <v>0.0005412345750116207</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H33">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I33">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J33">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.081356</v>
       </c>
       <c r="O33">
-        <v>0.01787240527067255</v>
+        <v>0.02179143518405613</v>
       </c>
       <c r="P33">
-        <v>0.02238635217015337</v>
+        <v>0.03145212336507813</v>
       </c>
       <c r="Q33">
-        <v>2.123112485486667</v>
+        <v>0.612579782136</v>
       </c>
       <c r="R33">
-        <v>19.10801236938</v>
+        <v>5.513218039223999</v>
       </c>
       <c r="S33">
-        <v>1.921270484034087E-05</v>
+        <v>1.494398921321771E-05</v>
       </c>
       <c r="T33">
-        <v>3.063506949742776E-05</v>
+        <v>3.04452427504105E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H34">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I34">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J34">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.631462</v>
+        <v>5.388908000000001</v>
       </c>
       <c r="N34">
-        <v>7.894385999999999</v>
+        <v>16.166724</v>
       </c>
       <c r="O34">
-        <v>0.01992438537973851</v>
+        <v>0.04974981037311565</v>
       </c>
       <c r="P34">
-        <v>0.02495659096409337</v>
+        <v>0.07180514546326573</v>
       </c>
       <c r="Q34">
-        <v>2.36687288167</v>
+        <v>1.398518626344</v>
       </c>
       <c r="R34">
-        <v>21.30185593503</v>
+        <v>12.586667637096</v>
       </c>
       <c r="S34">
-        <v>2.141856843713537E-05</v>
+        <v>3.411710258163379E-05</v>
       </c>
       <c r="T34">
-        <v>3.415236626283451E-05</v>
+        <v>6.950643869039878E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H35">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I35">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J35">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.9441395</v>
+        <v>36.869626</v>
       </c>
       <c r="N35">
-        <v>47.888279</v>
+        <v>73.73925199999999</v>
       </c>
       <c r="O35">
-        <v>0.1812955167067658</v>
+        <v>0.3403763623405139</v>
       </c>
       <c r="P35">
-        <v>0.1513896319457121</v>
+        <v>0.3275158106374803</v>
       </c>
       <c r="Q35">
-        <v>21.53659618017417</v>
+        <v>9.568331600267998</v>
       </c>
       <c r="R35">
-        <v>129.219577081045</v>
+        <v>57.40998960160799</v>
       </c>
       <c r="S35">
-        <v>0.0001948913533803894</v>
+        <v>0.0002334210961457259</v>
       </c>
       <c r="T35">
-        <v>0.0002071722923232797</v>
+        <v>0.0003170310075321298</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H36">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I36">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J36">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>46.76084399999999</v>
+        <v>0.470418</v>
       </c>
       <c r="N36">
-        <v>140.282532</v>
+        <v>1.411254</v>
       </c>
       <c r="O36">
-        <v>0.3540545432682795</v>
+        <v>0.004342847622579624</v>
       </c>
       <c r="P36">
-        <v>0.4434763856912163</v>
+        <v>0.006268140580343649</v>
       </c>
       <c r="Q36">
-        <v>42.05911907054</v>
+        <v>0.122081938524</v>
       </c>
       <c r="R36">
-        <v>378.53207163486</v>
+        <v>1.098737446716</v>
       </c>
       <c r="S36">
-        <v>0.0003806060423415616</v>
+        <v>2.97820990119835E-06</v>
       </c>
       <c r="T36">
-        <v>0.0006068844889446503</v>
+        <v>6.067477840753638E-06</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.8994516666666668</v>
+        <v>0.259518</v>
       </c>
       <c r="H37">
-        <v>2.698355</v>
+        <v>0.778554</v>
       </c>
       <c r="I37">
-        <v>0.001074992680020952</v>
+        <v>0.0006857735200548696</v>
       </c>
       <c r="J37">
-        <v>0.00136847081045531</v>
+        <v>0.0009679868795190599</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4270753333333333</v>
+        <v>0.2870306666666667</v>
       </c>
       <c r="N37">
-        <v>1.281226</v>
+        <v>0.861092</v>
       </c>
       <c r="O37">
-        <v>0.003233644843632026</v>
+        <v>0.002649835780817864</v>
       </c>
       <c r="P37">
-        <v>0.004050350871437182</v>
+        <v>0.003824574249999839</v>
       </c>
       <c r="Q37">
-        <v>0.3841336203588889</v>
+        <v>0.07448962455199999</v>
       </c>
       <c r="R37">
-        <v>3.45720258323</v>
+        <v>0.670406620968</v>
       </c>
       <c r="S37">
-        <v>3.476144536691922E-06</v>
+        <v>1.81718721097881E-06</v>
       </c>
       <c r="T37">
-        <v>5.542786939664011E-06</v>
+        <v>3.702137693746293E-06</v>
       </c>
     </row>
   </sheetData>
